--- a/A02RNLQ_FA COMPARISON REPORT.xlsx
+++ b/A02RNLQ_FA COMPARISON REPORT.xlsx
@@ -9437,7 +9437,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">6/20/2024 3:33:12 PM</t>
+            <t xml:space="preserve">6/25/2024 4:33:49 PM</t>
           </r>
           <r>
             <rPr>
@@ -9877,7 +9877,7 @@
       </c>
       <c s="8" t="inlineStr" r="D7">
         <is>
-          <t xml:space="preserve">F 13-1 RED CYPRESS CT FST</t>
+          <t xml:space="preserve">F 13-2 RED CYPRESS CT FST</t>
         </is>
       </c>
       <c s="7" r="E7">
@@ -10597,7 +10597,7 @@
       </c>
       <c s="8" t="inlineStr" r="D19">
         <is>
-          <t xml:space="preserve">F 16-1 RED CYPRESS CT FST</t>
+          <t xml:space="preserve">F 16-2 RED CYPRESS CT FST</t>
         </is>
       </c>
       <c s="7" r="E19">
@@ -11193,7 +11193,7 @@
       </c>
       <c s="8" t="inlineStr" r="D29">
         <is>
-          <t xml:space="preserve">F 20-1 BERG CT FST</t>
+          <t xml:space="preserve">F 20-2 BERG CT FST</t>
         </is>
       </c>
       <c s="7" r="E29">
@@ -12633,7 +12633,7 @@
       </c>
       <c s="8" t="inlineStr" r="D53">
         <is>
-          <t xml:space="preserve">F 240-1 BEAU RIVAGE DR FST</t>
+          <t xml:space="preserve">F 240-2 BEAU RIVAGE DR FST</t>
         </is>
       </c>
       <c s="7" r="E53">
@@ -12701,7 +12701,7 @@
       </c>
       <c s="8" t="inlineStr" r="D54">
         <is>
-          <t xml:space="preserve">F 245-1 MOSS LN FST</t>
+          <t xml:space="preserve">F 245-2 MOSS LN FST</t>
         </is>
       </c>
       <c s="7" r="E54">
@@ -12825,7 +12825,7 @@
       </c>
       <c s="8" t="inlineStr" r="D56">
         <is>
-          <t xml:space="preserve">F 245-1 SILVER MAPLE DR FST</t>
+          <t xml:space="preserve">F 245-2 SILVER MAPLE DR FST</t>
         </is>
       </c>
       <c s="7" r="E56">
@@ -13849,7 +13849,7 @@
       </c>
       <c s="8" t="inlineStr" r="D73">
         <is>
-          <t xml:space="preserve">F 265-1 SILVER MAPLE DR FST</t>
+          <t xml:space="preserve">F 265-2 SILVER MAPLE DR FST</t>
         </is>
       </c>
       <c s="7" r="E73">
@@ -15785,7 +15785,7 @@
       </c>
       <c s="8" t="inlineStr" r="D105">
         <is>
-          <t xml:space="preserve">F 310-1 AZALEA DR FST</t>
+          <t xml:space="preserve">F 310-2 AZALEA DR FST</t>
         </is>
       </c>
       <c s="7" r="E105">
@@ -15961,19 +15961,19 @@
     <row r="108" ht="21.15" customHeight="1">
       <c s="6" t="str" r="B108"/>
       <c s="7" r="C108">
-        <v>137261238</v>
+        <v>137258051</v>
       </c>
       <c s="8" t="inlineStr" r="D108">
         <is>
-          <t xml:space="preserve">F 315-1 JASMINE DR FST</t>
+          <t xml:space="preserve">F 315-2 GARDEN AVE FST</t>
         </is>
       </c>
       <c s="7" r="E108">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c s="8" t="inlineStr" r="F108">
         <is>
-          <t xml:space="preserve">PON2140PC, 601-608</t>
+          <t xml:space="preserve">PON2140PC, 557-560</t>
         </is>
       </c>
       <c s="7" r="G108">
@@ -15993,13 +15993,13 @@
       <c s="8" t="str" r="K108"/>
       <c s="8" t="inlineStr" r="L108">
         <is>
-          <t xml:space="preserve">315</t>
+          <t xml:space="preserve">305</t>
         </is>
       </c>
       <c s="8" t="str" r="M108"/>
       <c s="8" t="inlineStr" r="N108">
         <is>
-          <t xml:space="preserve">JASMINE DR</t>
+          <t xml:space="preserve">GARDEN AV</t>
         </is>
       </c>
       <c s="8" t="str" r="O108"/>
@@ -16049,13 +16049,13 @@
       <c s="8" t="str" r="K109"/>
       <c s="8" t="inlineStr" r="L109">
         <is>
-          <t xml:space="preserve">320</t>
+          <t xml:space="preserve">315</t>
         </is>
       </c>
       <c s="8" t="str" r="M109"/>
       <c s="8" t="inlineStr" r="N109">
         <is>
-          <t xml:space="preserve">JASMINE DR</t>
+          <t xml:space="preserve">GARDEN AV</t>
         </is>
       </c>
       <c s="8" t="str" r="O109"/>
@@ -16083,11 +16083,11 @@
       <c s="9" t="str" r="AH109"/>
     </row>
     <row r="110" ht="21.1" customHeight="1">
-      <c s="10" t="str" r="B110"/>
-      <c s="10" t="str" r="C110"/>
-      <c s="10" t="str" r="D110"/>
-      <c s="10" t="str" r="E110"/>
-      <c s="10" t="str" r="F110"/>
+      <c s="11" t="str" r="B110"/>
+      <c s="11" t="str" r="C110"/>
+      <c s="11" t="str" r="D110"/>
+      <c s="11" t="str" r="E110"/>
+      <c s="11" t="str" r="F110"/>
       <c s="7" r="G110">
         <v>3</v>
       </c>
@@ -16105,13 +16105,13 @@
       <c s="8" t="str" r="K110"/>
       <c s="8" t="inlineStr" r="L110">
         <is>
-          <t xml:space="preserve">295</t>
+          <t xml:space="preserve">300</t>
         </is>
       </c>
       <c s="8" t="str" r="M110"/>
       <c s="8" t="inlineStr" r="N110">
         <is>
-          <t xml:space="preserve">AZALEA DR</t>
+          <t xml:space="preserve">GARDEN AV</t>
         </is>
       </c>
       <c s="8" t="str" r="O110"/>
@@ -16139,25 +16139,13 @@
       <c s="9" t="str" r="AH110"/>
     </row>
     <row r="111" ht="21.15" customHeight="1">
-      <c s="6" t="str" r="B111"/>
-      <c s="7" r="C111">
-        <v>137261117</v>
-      </c>
-      <c s="8" t="inlineStr" r="D111">
-        <is>
-          <t xml:space="preserve">F 315-1 MOSS LN FST</t>
-        </is>
-      </c>
-      <c s="7" r="E111">
+      <c s="10" t="str" r="B111"/>
+      <c s="10" t="str" r="C111"/>
+      <c s="10" t="str" r="D111"/>
+      <c s="10" t="str" r="E111"/>
+      <c s="10" t="str" r="F111"/>
+      <c s="7" r="G111">
         <v>4</v>
-      </c>
-      <c s="8" t="inlineStr" r="F111">
-        <is>
-          <t xml:space="preserve">PON2140PC, 649-652</t>
-        </is>
-      </c>
-      <c s="7" r="G111">
-        <v>1</v>
       </c>
       <c s="8" t="inlineStr" r="H111">
         <is>
@@ -16173,13 +16161,13 @@
       <c s="8" t="str" r="K111"/>
       <c s="8" t="inlineStr" r="L111">
         <is>
-          <t xml:space="preserve">305</t>
+          <t xml:space="preserve">310</t>
         </is>
       </c>
       <c s="8" t="str" r="M111"/>
       <c s="8" t="inlineStr" r="N111">
         <is>
-          <t xml:space="preserve">MOSS LN</t>
+          <t xml:space="preserve">GARDEN AV</t>
         </is>
       </c>
       <c s="8" t="str" r="O111"/>
@@ -16207,13 +16195,25 @@
       <c s="9" t="str" r="AH111"/>
     </row>
     <row r="112" ht="21.1" customHeight="1">
-      <c s="11" t="str" r="B112"/>
-      <c s="11" t="str" r="C112"/>
-      <c s="11" t="str" r="D112"/>
-      <c s="11" t="str" r="E112"/>
-      <c s="11" t="str" r="F112"/>
+      <c s="6" t="str" r="B112"/>
+      <c s="7" r="C112">
+        <v>137261238</v>
+      </c>
+      <c s="8" t="inlineStr" r="D112">
+        <is>
+          <t xml:space="preserve">F 315-2 JASMINE DR FST</t>
+        </is>
+      </c>
+      <c s="7" r="E112">
+        <v>8</v>
+      </c>
+      <c s="8" t="inlineStr" r="F112">
+        <is>
+          <t xml:space="preserve">PON2140PC, 601-608</t>
+        </is>
+      </c>
       <c s="7" r="G112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c s="8" t="inlineStr" r="H112">
         <is>
@@ -16235,7 +16235,7 @@
       <c s="8" t="str" r="M112"/>
       <c s="8" t="inlineStr" r="N112">
         <is>
-          <t xml:space="preserve">MOSS LN</t>
+          <t xml:space="preserve">JASMINE DR</t>
         </is>
       </c>
       <c s="8" t="str" r="O112"/>
@@ -16269,7 +16269,7 @@
       <c s="11" t="str" r="E113"/>
       <c s="11" t="str" r="F113"/>
       <c s="7" r="G113">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c s="8" t="inlineStr" r="H113">
         <is>
@@ -16285,13 +16285,13 @@
       <c s="8" t="str" r="K113"/>
       <c s="8" t="inlineStr" r="L113">
         <is>
-          <t xml:space="preserve">310</t>
+          <t xml:space="preserve">320</t>
         </is>
       </c>
       <c s="8" t="str" r="M113"/>
       <c s="8" t="inlineStr" r="N113">
         <is>
-          <t xml:space="preserve">MOSS LN</t>
+          <t xml:space="preserve">JASMINE DR</t>
         </is>
       </c>
       <c s="8" t="str" r="O113"/>
@@ -16325,7 +16325,7 @@
       <c s="10" t="str" r="E114"/>
       <c s="10" t="str" r="F114"/>
       <c s="7" r="G114">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c s="8" t="inlineStr" r="H114">
         <is>
@@ -16341,13 +16341,13 @@
       <c s="8" t="str" r="K114"/>
       <c s="8" t="inlineStr" r="L114">
         <is>
-          <t xml:space="preserve">320</t>
+          <t xml:space="preserve">295</t>
         </is>
       </c>
       <c s="8" t="str" r="M114"/>
       <c s="8" t="inlineStr" r="N114">
         <is>
-          <t xml:space="preserve">MOSS LN</t>
+          <t xml:space="preserve">AZALEA DR</t>
         </is>
       </c>
       <c s="8" t="str" r="O114"/>
@@ -16377,11 +16377,11 @@
     <row r="115" ht="21.1" customHeight="1">
       <c s="6" t="str" r="B115"/>
       <c s="7" r="C115">
-        <v>137258051</v>
+        <v>137261117</v>
       </c>
       <c s="8" t="inlineStr" r="D115">
         <is>
-          <t xml:space="preserve">F 315-2 GARDEN AVE FST</t>
+          <t xml:space="preserve">F 315-2 MOSS LN FST</t>
         </is>
       </c>
       <c s="7" r="E115">
@@ -16389,7 +16389,7 @@
       </c>
       <c s="8" t="inlineStr" r="F115">
         <is>
-          <t xml:space="preserve">PON2140PC, 557-560</t>
+          <t xml:space="preserve">PON2140PC, 649-652</t>
         </is>
       </c>
       <c s="7" r="G115">
@@ -16415,7 +16415,7 @@
       <c s="8" t="str" r="M115"/>
       <c s="8" t="inlineStr" r="N115">
         <is>
-          <t xml:space="preserve">GARDEN AV</t>
+          <t xml:space="preserve">MOSS LN</t>
         </is>
       </c>
       <c s="8" t="str" r="O115"/>
@@ -16471,7 +16471,7 @@
       <c s="8" t="str" r="M116"/>
       <c s="8" t="inlineStr" r="N116">
         <is>
-          <t xml:space="preserve">GARDEN AV</t>
+          <t xml:space="preserve">MOSS LN</t>
         </is>
       </c>
       <c s="8" t="str" r="O116"/>
@@ -16521,13 +16521,13 @@
       <c s="8" t="str" r="K117"/>
       <c s="8" t="inlineStr" r="L117">
         <is>
-          <t xml:space="preserve">300</t>
+          <t xml:space="preserve">310</t>
         </is>
       </c>
       <c s="8" t="str" r="M117"/>
       <c s="8" t="inlineStr" r="N117">
         <is>
-          <t xml:space="preserve">GARDEN AV</t>
+          <t xml:space="preserve">MOSS LN</t>
         </is>
       </c>
       <c s="8" t="str" r="O117"/>
@@ -16577,13 +16577,13 @@
       <c s="8" t="str" r="K118"/>
       <c s="8" t="inlineStr" r="L118">
         <is>
-          <t xml:space="preserve">310</t>
+          <t xml:space="preserve">320</t>
         </is>
       </c>
       <c s="8" t="str" r="M118"/>
       <c s="8" t="inlineStr" r="N118">
         <is>
-          <t xml:space="preserve">GARDEN AV</t>
+          <t xml:space="preserve">MOSS LN</t>
         </is>
       </c>
       <c s="8" t="str" r="O118"/>
@@ -16741,7 +16741,7 @@
       </c>
       <c s="8" t="inlineStr" r="D121">
         <is>
-          <t xml:space="preserve">F 325-1 JASMINE DR FST</t>
+          <t xml:space="preserve">F 325-2 JASMINE DR FST</t>
         </is>
       </c>
       <c s="7" r="E121">
@@ -16977,7 +16977,7 @@
       </c>
       <c s="8" t="inlineStr" r="D125">
         <is>
-          <t xml:space="preserve">F 325-1 LOTUS DR S FST</t>
+          <t xml:space="preserve">F 325-2 LOTUS DR S FST</t>
         </is>
       </c>
       <c s="7" r="E125">
@@ -17213,7 +17213,7 @@
       </c>
       <c s="8" t="inlineStr" r="D129">
         <is>
-          <t xml:space="preserve">F 330-1 BEAU RIVAGE DR FST</t>
+          <t xml:space="preserve">F 330-2 BEAU RIVAGE DR FST</t>
         </is>
       </c>
       <c s="7" r="E129">
@@ -17337,7 +17337,7 @@
       </c>
       <c s="8" t="inlineStr" r="D131">
         <is>
-          <t xml:space="preserve">F 335-1 GARDEN AVE FST</t>
+          <t xml:space="preserve">F 335-2 GARDEN AVE FST</t>
         </is>
       </c>
       <c s="7" r="E131">
@@ -17573,7 +17573,7 @@
       </c>
       <c s="8" t="inlineStr" r="D135">
         <is>
-          <t xml:space="preserve">F 335-1 MOSS LN FST</t>
+          <t xml:space="preserve">F 335-2 MOSS LN FST</t>
         </is>
       </c>
       <c s="7" r="E135">
@@ -18281,7 +18281,7 @@
       </c>
       <c s="8" t="inlineStr" r="D147">
         <is>
-          <t xml:space="preserve">F 35-1 BERG CT FST</t>
+          <t xml:space="preserve">F 35-2 BERG CT FST</t>
         </is>
       </c>
       <c s="7" r="E147">
@@ -18405,7 +18405,7 @@
       </c>
       <c s="8" t="inlineStr" r="D149">
         <is>
-          <t xml:space="preserve">F 350-1 BEAU RIVAGE DR FST</t>
+          <t xml:space="preserve">F 350-2 BEAU RIVAGE DR FST</t>
         </is>
       </c>
       <c s="7" r="E149">
@@ -18581,11 +18581,11 @@
     <row r="152" ht="21.1" customHeight="1">
       <c s="6" t="str" r="B152"/>
       <c s="7" r="C152">
-        <v>137258125</v>
+        <v>137258099</v>
       </c>
       <c s="8" t="inlineStr" r="D152">
         <is>
-          <t xml:space="preserve">F 355-1 GARDEN AVE FST</t>
+          <t xml:space="preserve">F 355-2 CAMELLIA LN FST</t>
         </is>
       </c>
       <c s="7" r="E152">
@@ -18593,7 +18593,7 @@
       </c>
       <c s="8" t="inlineStr" r="F152">
         <is>
-          <t xml:space="preserve">PON2140PC, 513-516</t>
+          <t xml:space="preserve">PON2140PC, 533-536</t>
         </is>
       </c>
       <c s="7" r="G152">
@@ -18619,7 +18619,7 @@
       <c s="8" t="str" r="M152"/>
       <c s="8" t="inlineStr" r="N152">
         <is>
-          <t xml:space="preserve">GARDEN AV</t>
+          <t xml:space="preserve">CAMELLIA LN</t>
         </is>
       </c>
       <c s="8" t="str" r="O152"/>
@@ -18675,7 +18675,7 @@
       <c s="8" t="str" r="M153"/>
       <c s="8" t="inlineStr" r="N153">
         <is>
-          <t xml:space="preserve">GARDEN AV</t>
+          <t xml:space="preserve">CAMELLIA LN</t>
         </is>
       </c>
       <c s="8" t="str" r="O153"/>
@@ -18725,13 +18725,13 @@
       <c s="8" t="str" r="K154"/>
       <c s="8" t="inlineStr" r="L154">
         <is>
-          <t xml:space="preserve">370</t>
+          <t xml:space="preserve">320</t>
         </is>
       </c>
       <c s="8" t="str" r="M154"/>
       <c s="8" t="inlineStr" r="N154">
         <is>
-          <t xml:space="preserve">GARDEN AV</t>
+          <t xml:space="preserve">CAMELLIA LN</t>
         </is>
       </c>
       <c s="8" t="str" r="O154"/>
@@ -18781,13 +18781,13 @@
       <c s="8" t="str" r="K155"/>
       <c s="8" t="inlineStr" r="L155">
         <is>
-          <t xml:space="preserve">360</t>
+          <t xml:space="preserve">345</t>
         </is>
       </c>
       <c s="8" t="str" r="M155"/>
       <c s="8" t="inlineStr" r="N155">
         <is>
-          <t xml:space="preserve">GARDEN AV</t>
+          <t xml:space="preserve">LOTUS DR S</t>
         </is>
       </c>
       <c s="8" t="str" r="O155"/>
@@ -18817,11 +18817,11 @@
     <row r="156" ht="21.15" customHeight="1">
       <c s="6" t="str" r="B156"/>
       <c s="7" r="C156">
-        <v>137261129</v>
+        <v>137258125</v>
       </c>
       <c s="8" t="inlineStr" r="D156">
         <is>
-          <t xml:space="preserve">F 355-1 MOSS LN FST</t>
+          <t xml:space="preserve">F 355-2 GARDEN AVE FST</t>
         </is>
       </c>
       <c s="7" r="E156">
@@ -18829,7 +18829,7 @@
       </c>
       <c s="8" t="inlineStr" r="F156">
         <is>
-          <t xml:space="preserve">PON2140PC, 641-644</t>
+          <t xml:space="preserve">PON2140PC, 513-516</t>
         </is>
       </c>
       <c s="7" r="G156">
@@ -18849,13 +18849,13 @@
       <c s="8" t="str" r="K156"/>
       <c s="8" t="inlineStr" r="L156">
         <is>
-          <t xml:space="preserve">345</t>
+          <t xml:space="preserve">355</t>
         </is>
       </c>
       <c s="8" t="str" r="M156"/>
       <c s="8" t="inlineStr" r="N156">
         <is>
-          <t xml:space="preserve">MOSS LN</t>
+          <t xml:space="preserve">GARDEN AV</t>
         </is>
       </c>
       <c s="8" t="str" r="O156"/>
@@ -18905,13 +18905,13 @@
       <c s="8" t="str" r="K157"/>
       <c s="8" t="inlineStr" r="L157">
         <is>
-          <t xml:space="preserve">355</t>
+          <t xml:space="preserve">345</t>
         </is>
       </c>
       <c s="8" t="str" r="M157"/>
       <c s="8" t="inlineStr" r="N157">
         <is>
-          <t xml:space="preserve">MOSS LN</t>
+          <t xml:space="preserve">GARDEN AV</t>
         </is>
       </c>
       <c s="8" t="str" r="O157"/>
@@ -18961,13 +18961,13 @@
       <c s="8" t="str" r="K158"/>
       <c s="8" t="inlineStr" r="L158">
         <is>
-          <t xml:space="preserve">350</t>
+          <t xml:space="preserve">370</t>
         </is>
       </c>
       <c s="8" t="str" r="M158"/>
       <c s="8" t="inlineStr" r="N158">
         <is>
-          <t xml:space="preserve">MOSS LN</t>
+          <t xml:space="preserve">GARDEN AV</t>
         </is>
       </c>
       <c s="8" t="str" r="O158"/>
@@ -19023,7 +19023,7 @@
       <c s="8" t="str" r="M159"/>
       <c s="8" t="inlineStr" r="N159">
         <is>
-          <t xml:space="preserve">MOSS LN</t>
+          <t xml:space="preserve">GARDEN AV</t>
         </is>
       </c>
       <c s="8" t="str" r="O159"/>
@@ -19053,11 +19053,11 @@
     <row r="160" ht="21.1" customHeight="1">
       <c s="6" t="str" r="B160"/>
       <c s="7" r="C160">
-        <v>137258099</v>
+        <v>137261129</v>
       </c>
       <c s="8" t="inlineStr" r="D160">
         <is>
-          <t xml:space="preserve">F 355-2 CAMELLIA LN FST</t>
+          <t xml:space="preserve">F 355-2 MOSS LN FST</t>
         </is>
       </c>
       <c s="7" r="E160">
@@ -19065,7 +19065,7 @@
       </c>
       <c s="8" t="inlineStr" r="F160">
         <is>
-          <t xml:space="preserve">PON2140PC, 533-536</t>
+          <t xml:space="preserve">PON2140PC, 641-644</t>
         </is>
       </c>
       <c s="7" r="G160">
@@ -19085,13 +19085,13 @@
       <c s="8" t="str" r="K160"/>
       <c s="8" t="inlineStr" r="L160">
         <is>
-          <t xml:space="preserve">355</t>
+          <t xml:space="preserve">345</t>
         </is>
       </c>
       <c s="8" t="str" r="M160"/>
       <c s="8" t="inlineStr" r="N160">
         <is>
-          <t xml:space="preserve">CAMELLIA LN</t>
+          <t xml:space="preserve">MOSS LN</t>
         </is>
       </c>
       <c s="8" t="str" r="O160"/>
@@ -19141,13 +19141,13 @@
       <c s="8" t="str" r="K161"/>
       <c s="8" t="inlineStr" r="L161">
         <is>
-          <t xml:space="preserve">345</t>
+          <t xml:space="preserve">355</t>
         </is>
       </c>
       <c s="8" t="str" r="M161"/>
       <c s="8" t="inlineStr" r="N161">
         <is>
-          <t xml:space="preserve">CAMELLIA LN</t>
+          <t xml:space="preserve">MOSS LN</t>
         </is>
       </c>
       <c s="8" t="str" r="O161"/>
@@ -19197,13 +19197,13 @@
       <c s="8" t="str" r="K162"/>
       <c s="8" t="inlineStr" r="L162">
         <is>
-          <t xml:space="preserve">320</t>
+          <t xml:space="preserve">350</t>
         </is>
       </c>
       <c s="8" t="str" r="M162"/>
       <c s="8" t="inlineStr" r="N162">
         <is>
-          <t xml:space="preserve">CAMELLIA LN</t>
+          <t xml:space="preserve">MOSS LN</t>
         </is>
       </c>
       <c s="8" t="str" r="O162"/>
@@ -19253,13 +19253,13 @@
       <c s="8" t="str" r="K163"/>
       <c s="8" t="inlineStr" r="L163">
         <is>
-          <t xml:space="preserve">345</t>
+          <t xml:space="preserve">360</t>
         </is>
       </c>
       <c s="8" t="str" r="M163"/>
       <c s="8" t="inlineStr" r="N163">
         <is>
-          <t xml:space="preserve">LOTUS DR S</t>
+          <t xml:space="preserve">MOSS LN</t>
         </is>
       </c>
       <c s="8" t="str" r="O163"/>
@@ -19293,7 +19293,7 @@
       </c>
       <c s="8" t="inlineStr" r="D164">
         <is>
-          <t xml:space="preserve">F 364-1 AZALEA DR FST</t>
+          <t xml:space="preserve">F 364-2 AZALEA DR FST</t>
         </is>
       </c>
       <c s="7" r="E164">
@@ -20001,7 +20001,7 @@
       </c>
       <c s="8" t="inlineStr" r="D176">
         <is>
-          <t xml:space="preserve">F 370-1 BEAU RIVAGE DR FST</t>
+          <t xml:space="preserve">F 370-2 BEAU RIVAGE DR FST</t>
         </is>
       </c>
       <c s="7" r="E176">
@@ -20121,19 +20121,19 @@
     <row r="178" ht="21.1" customHeight="1">
       <c s="6" t="str" r="B178"/>
       <c s="7" r="C178">
-        <v>137258108</v>
+        <v>137257316</v>
       </c>
       <c s="8" t="inlineStr" r="D178">
         <is>
-          <t xml:space="preserve">F 375-1 LOTUS DR S FST</t>
+          <t xml:space="preserve">F 375-2 BEAU RIVAGE DR FST</t>
         </is>
       </c>
       <c s="7" r="E178">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c s="8" t="inlineStr" r="F178">
         <is>
-          <t xml:space="preserve">PON2140PC, 525-532</t>
+          <t xml:space="preserve">PON2140PC, 729-732</t>
         </is>
       </c>
       <c s="7" r="G178">
@@ -20159,7 +20159,7 @@
       <c s="8" t="str" r="M178"/>
       <c s="8" t="inlineStr" r="N178">
         <is>
-          <t xml:space="preserve">LOTUS DR S</t>
+          <t xml:space="preserve">BEAU RIVAGE DR</t>
         </is>
       </c>
       <c s="8" t="str" r="O178"/>
@@ -20187,11 +20187,11 @@
       <c s="9" t="str" r="AH178"/>
     </row>
     <row r="179" ht="21.15" customHeight="1">
-      <c s="11" t="str" r="B179"/>
-      <c s="11" t="str" r="C179"/>
-      <c s="11" t="str" r="D179"/>
-      <c s="11" t="str" r="E179"/>
-      <c s="11" t="str" r="F179"/>
+      <c s="10" t="str" r="B179"/>
+      <c s="10" t="str" r="C179"/>
+      <c s="10" t="str" r="D179"/>
+      <c s="10" t="str" r="E179"/>
+      <c s="10" t="str" r="F179"/>
       <c s="7" r="G179">
         <v>2</v>
       </c>
@@ -20209,13 +20209,13 @@
       <c s="8" t="str" r="K179"/>
       <c s="8" t="inlineStr" r="L179">
         <is>
-          <t xml:space="preserve">365</t>
+          <t xml:space="preserve">385</t>
         </is>
       </c>
       <c s="8" t="str" r="M179"/>
       <c s="8" t="inlineStr" r="N179">
         <is>
-          <t xml:space="preserve">LOTUS DR S</t>
+          <t xml:space="preserve">BEAU RIVAGE DR</t>
         </is>
       </c>
       <c s="8" t="str" r="O179"/>
@@ -20243,13 +20243,25 @@
       <c s="9" t="str" r="AH179"/>
     </row>
     <row r="180" ht="21.1" customHeight="1">
-      <c s="11" t="str" r="B180"/>
-      <c s="11" t="str" r="C180"/>
-      <c s="11" t="str" r="D180"/>
-      <c s="11" t="str" r="E180"/>
-      <c s="11" t="str" r="F180"/>
+      <c s="6" t="str" r="B180"/>
+      <c s="7" r="C180">
+        <v>137258141</v>
+      </c>
+      <c s="8" t="inlineStr" r="D180">
+        <is>
+          <t xml:space="preserve">F 375-2 GARDEN AVE FST</t>
+        </is>
+      </c>
+      <c s="7" r="E180">
+        <v>4</v>
+      </c>
+      <c s="8" t="inlineStr" r="F180">
+        <is>
+          <t xml:space="preserve">PON2140PC, 509-512</t>
+        </is>
+      </c>
       <c s="7" r="G180">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c s="8" t="inlineStr" r="H180">
         <is>
@@ -20265,13 +20277,13 @@
       <c s="8" t="str" r="K180"/>
       <c s="8" t="inlineStr" r="L180">
         <is>
-          <t xml:space="preserve">370</t>
+          <t xml:space="preserve">375</t>
         </is>
       </c>
       <c s="8" t="str" r="M180"/>
       <c s="8" t="inlineStr" r="N180">
         <is>
-          <t xml:space="preserve">LOTUS DR S</t>
+          <t xml:space="preserve">GARDEN AV</t>
         </is>
       </c>
       <c s="8" t="str" r="O180"/>
@@ -20299,13 +20311,13 @@
       <c s="9" t="str" r="AH180"/>
     </row>
     <row r="181" ht="21.15" customHeight="1">
-      <c s="10" t="str" r="B181"/>
-      <c s="10" t="str" r="C181"/>
-      <c s="10" t="str" r="D181"/>
-      <c s="10" t="str" r="E181"/>
-      <c s="10" t="str" r="F181"/>
+      <c s="11" t="str" r="B181"/>
+      <c s="11" t="str" r="C181"/>
+      <c s="11" t="str" r="D181"/>
+      <c s="11" t="str" r="E181"/>
+      <c s="11" t="str" r="F181"/>
       <c s="7" r="G181">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c s="8" t="inlineStr" r="H181">
         <is>
@@ -20321,13 +20333,13 @@
       <c s="8" t="str" r="K181"/>
       <c s="8" t="inlineStr" r="L181">
         <is>
-          <t xml:space="preserve">360</t>
+          <t xml:space="preserve">365</t>
         </is>
       </c>
       <c s="8" t="str" r="M181"/>
       <c s="8" t="inlineStr" r="N181">
         <is>
-          <t xml:space="preserve">LOTUS DR S</t>
+          <t xml:space="preserve">GARDEN AV</t>
         </is>
       </c>
       <c s="8" t="str" r="O181"/>
@@ -20355,25 +20367,13 @@
       <c s="9" t="str" r="AH181"/>
     </row>
     <row r="182" ht="21.1" customHeight="1">
-      <c s="6" t="str" r="B182"/>
-      <c s="7" r="C182">
-        <v>137257316</v>
-      </c>
-      <c s="8" t="inlineStr" r="D182">
-        <is>
-          <t xml:space="preserve">F 375-2 BEAU RIVAGE DR FST</t>
-        </is>
-      </c>
-      <c s="7" r="E182">
-        <v>4</v>
-      </c>
-      <c s="8" t="inlineStr" r="F182">
-        <is>
-          <t xml:space="preserve">PON2140PC, 729-732</t>
-        </is>
-      </c>
+      <c s="10" t="str" r="B182"/>
+      <c s="10" t="str" r="C182"/>
+      <c s="10" t="str" r="D182"/>
+      <c s="10" t="str" r="E182"/>
+      <c s="10" t="str" r="F182"/>
       <c s="7" r="G182">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c s="8" t="inlineStr" r="H182">
         <is>
@@ -20389,13 +20389,13 @@
       <c s="8" t="str" r="K182"/>
       <c s="8" t="inlineStr" r="L182">
         <is>
-          <t xml:space="preserve">375</t>
+          <t xml:space="preserve">380</t>
         </is>
       </c>
       <c s="8" t="str" r="M182"/>
       <c s="8" t="inlineStr" r="N182">
         <is>
-          <t xml:space="preserve">BEAU RIVAGE DR</t>
+          <t xml:space="preserve">GARDEN AV</t>
         </is>
       </c>
       <c s="8" t="str" r="O182"/>
@@ -20423,13 +20423,25 @@
       <c s="9" t="str" r="AH182"/>
     </row>
     <row r="183" ht="21.1" customHeight="1">
-      <c s="10" t="str" r="B183"/>
-      <c s="10" t="str" r="C183"/>
-      <c s="10" t="str" r="D183"/>
-      <c s="10" t="str" r="E183"/>
-      <c s="10" t="str" r="F183"/>
+      <c s="6" t="str" r="B183"/>
+      <c s="7" r="C183">
+        <v>137258108</v>
+      </c>
+      <c s="8" t="inlineStr" r="D183">
+        <is>
+          <t xml:space="preserve">F 375-2 LOTUS DR S FST</t>
+        </is>
+      </c>
+      <c s="7" r="E183">
+        <v>8</v>
+      </c>
+      <c s="8" t="inlineStr" r="F183">
+        <is>
+          <t xml:space="preserve">PON2140PC, 525-532</t>
+        </is>
+      </c>
       <c s="7" r="G183">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c s="8" t="inlineStr" r="H183">
         <is>
@@ -20445,13 +20457,13 @@
       <c s="8" t="str" r="K183"/>
       <c s="8" t="inlineStr" r="L183">
         <is>
-          <t xml:space="preserve">385</t>
+          <t xml:space="preserve">375</t>
         </is>
       </c>
       <c s="8" t="str" r="M183"/>
       <c s="8" t="inlineStr" r="N183">
         <is>
-          <t xml:space="preserve">BEAU RIVAGE DR</t>
+          <t xml:space="preserve">LOTUS DR S</t>
         </is>
       </c>
       <c s="8" t="str" r="O183"/>
@@ -20479,25 +20491,13 @@
       <c s="9" t="str" r="AH183"/>
     </row>
     <row r="184" ht="21.15" customHeight="1">
-      <c s="6" t="str" r="B184"/>
-      <c s="7" r="C184">
-        <v>137258141</v>
-      </c>
-      <c s="8" t="inlineStr" r="D184">
-        <is>
-          <t xml:space="preserve">F 375-2 GARDEN AVE FST</t>
-        </is>
-      </c>
-      <c s="7" r="E184">
-        <v>4</v>
-      </c>
-      <c s="8" t="inlineStr" r="F184">
-        <is>
-          <t xml:space="preserve">PON2140PC, 509-512</t>
-        </is>
-      </c>
+      <c s="11" t="str" r="B184"/>
+      <c s="11" t="str" r="C184"/>
+      <c s="11" t="str" r="D184"/>
+      <c s="11" t="str" r="E184"/>
+      <c s="11" t="str" r="F184"/>
       <c s="7" r="G184">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c s="8" t="inlineStr" r="H184">
         <is>
@@ -20513,13 +20513,13 @@
       <c s="8" t="str" r="K184"/>
       <c s="8" t="inlineStr" r="L184">
         <is>
-          <t xml:space="preserve">375</t>
+          <t xml:space="preserve">365</t>
         </is>
       </c>
       <c s="8" t="str" r="M184"/>
       <c s="8" t="inlineStr" r="N184">
         <is>
-          <t xml:space="preserve">GARDEN AV</t>
+          <t xml:space="preserve">LOTUS DR S</t>
         </is>
       </c>
       <c s="8" t="str" r="O184"/>
@@ -20553,7 +20553,7 @@
       <c s="11" t="str" r="E185"/>
       <c s="11" t="str" r="F185"/>
       <c s="7" r="G185">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c s="8" t="inlineStr" r="H185">
         <is>
@@ -20569,13 +20569,13 @@
       <c s="8" t="str" r="K185"/>
       <c s="8" t="inlineStr" r="L185">
         <is>
-          <t xml:space="preserve">365</t>
+          <t xml:space="preserve">370</t>
         </is>
       </c>
       <c s="8" t="str" r="M185"/>
       <c s="8" t="inlineStr" r="N185">
         <is>
-          <t xml:space="preserve">GARDEN AV</t>
+          <t xml:space="preserve">LOTUS DR S</t>
         </is>
       </c>
       <c s="8" t="str" r="O185"/>
@@ -20609,7 +20609,7 @@
       <c s="10" t="str" r="E186"/>
       <c s="10" t="str" r="F186"/>
       <c s="7" r="G186">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c s="8" t="inlineStr" r="H186">
         <is>
@@ -20625,13 +20625,13 @@
       <c s="8" t="str" r="K186"/>
       <c s="8" t="inlineStr" r="L186">
         <is>
-          <t xml:space="preserve">380</t>
+          <t xml:space="preserve">360</t>
         </is>
       </c>
       <c s="8" t="str" r="M186"/>
       <c s="8" t="inlineStr" r="N186">
         <is>
-          <t xml:space="preserve">GARDEN AV</t>
+          <t xml:space="preserve">LOTUS DR S</t>
         </is>
       </c>
       <c s="8" t="str" r="O186"/>
@@ -21201,19 +21201,19 @@
     <row r="196" ht="21.1" customHeight="1">
       <c s="6" t="str" r="B196"/>
       <c s="7" r="C196">
-        <v>137258112</v>
+        <v>137261093</v>
       </c>
       <c s="8" t="inlineStr" r="D196">
         <is>
-          <t xml:space="preserve">F 390-1 GARDEN AVE FST</t>
+          <t xml:space="preserve">F 390-2 AZALEA DR FST</t>
         </is>
       </c>
       <c s="7" r="E196">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c s="8" t="inlineStr" r="F196">
         <is>
-          <t xml:space="preserve">PON2140PC, 517-524</t>
+          <t xml:space="preserve">PON2140PC, 665-668</t>
         </is>
       </c>
       <c s="7" r="G196">
@@ -21239,7 +21239,7 @@
       <c s="8" t="str" r="M196"/>
       <c s="8" t="inlineStr" r="N196">
         <is>
-          <t xml:space="preserve">GARDEN AV</t>
+          <t xml:space="preserve">AZALEA DR</t>
         </is>
       </c>
       <c s="8" t="str" r="O196"/>
@@ -21289,13 +21289,13 @@
       <c s="8" t="str" r="K197"/>
       <c s="8" t="inlineStr" r="L197">
         <is>
-          <t xml:space="preserve">400</t>
+          <t xml:space="preserve">385</t>
         </is>
       </c>
       <c s="8" t="str" r="M197"/>
       <c s="8" t="inlineStr" r="N197">
         <is>
-          <t xml:space="preserve">GARDEN AV</t>
+          <t xml:space="preserve">AZALEA DR</t>
         </is>
       </c>
       <c s="8" t="str" r="O197"/>
@@ -21345,13 +21345,13 @@
       <c s="8" t="str" r="K198"/>
       <c s="8" t="inlineStr" r="L198">
         <is>
-          <t xml:space="preserve">380</t>
+          <t xml:space="preserve">395</t>
         </is>
       </c>
       <c s="8" t="str" r="M198"/>
       <c s="8" t="inlineStr" r="N198">
         <is>
-          <t xml:space="preserve">LOTUS DR S</t>
+          <t xml:space="preserve">AZALEA DR</t>
         </is>
       </c>
       <c s="8" t="str" r="O198"/>
@@ -21381,19 +21381,19 @@
     <row r="199" ht="21.15" customHeight="1">
       <c s="6" t="str" r="B199"/>
       <c s="7" r="C199">
-        <v>137261093</v>
+        <v>137258112</v>
       </c>
       <c s="8" t="inlineStr" r="D199">
         <is>
-          <t xml:space="preserve">F 390-2 AZALEA DR FST</t>
+          <t xml:space="preserve">F 390-2 GARDEN AVE FST</t>
         </is>
       </c>
       <c s="7" r="E199">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c s="8" t="inlineStr" r="F199">
         <is>
-          <t xml:space="preserve">PON2140PC, 665-668</t>
+          <t xml:space="preserve">PON2140PC, 517-524</t>
         </is>
       </c>
       <c s="7" r="G199">
@@ -21419,7 +21419,7 @@
       <c s="8" t="str" r="M199"/>
       <c s="8" t="inlineStr" r="N199">
         <is>
-          <t xml:space="preserve">AZALEA DR</t>
+          <t xml:space="preserve">GARDEN AV</t>
         </is>
       </c>
       <c s="8" t="str" r="O199"/>
@@ -21469,13 +21469,13 @@
       <c s="8" t="str" r="K200"/>
       <c s="8" t="inlineStr" r="L200">
         <is>
-          <t xml:space="preserve">385</t>
+          <t xml:space="preserve">400</t>
         </is>
       </c>
       <c s="8" t="str" r="M200"/>
       <c s="8" t="inlineStr" r="N200">
         <is>
-          <t xml:space="preserve">AZALEA DR</t>
+          <t xml:space="preserve">GARDEN AV</t>
         </is>
       </c>
       <c s="8" t="str" r="O200"/>
@@ -21525,13 +21525,13 @@
       <c s="8" t="str" r="K201"/>
       <c s="8" t="inlineStr" r="L201">
         <is>
-          <t xml:space="preserve">395</t>
+          <t xml:space="preserve">380</t>
         </is>
       </c>
       <c s="8" t="str" r="M201"/>
       <c s="8" t="inlineStr" r="N201">
         <is>
-          <t xml:space="preserve">AZALEA DR</t>
+          <t xml:space="preserve">LOTUS DR S</t>
         </is>
       </c>
       <c s="8" t="str" r="O201"/>
@@ -21565,7 +21565,7 @@
       </c>
       <c s="8" t="inlineStr" r="D202">
         <is>
-          <t xml:space="preserve">F 395-1 GARDEN AVE FST</t>
+          <t xml:space="preserve">F 395-2 GARDEN AVE FST</t>
         </is>
       </c>
       <c s="7" r="E202">
@@ -21689,7 +21689,7 @@
       </c>
       <c s="8" t="inlineStr" r="D204">
         <is>
-          <t xml:space="preserve">F 398-1 AZALEA DR FST</t>
+          <t xml:space="preserve">F 398-2 AZALEA DR FST</t>
         </is>
       </c>
       <c s="7" r="E204">
@@ -21813,7 +21813,7 @@
       </c>
       <c s="8" t="inlineStr" r="D206">
         <is>
-          <t xml:space="preserve">F 399-1 GARDEN AVE FST</t>
+          <t xml:space="preserve">F 399-2 GARDEN AVE FST</t>
         </is>
       </c>
       <c s="7" r="E206">
@@ -22005,7 +22005,7 @@
       </c>
       <c s="8" t="inlineStr" r="D209">
         <is>
-          <t xml:space="preserve">F 404-1 VENUS DR FST</t>
+          <t xml:space="preserve">F 404-2 VENUS DR FST</t>
         </is>
       </c>
       <c s="7" r="E209">
@@ -22991,11 +22991,11 @@
     <row r="226" ht="21.1" customHeight="1">
       <c s="12" t="str" r="B226"/>
       <c s="7" r="C226">
-        <v>137451232</v>
+        <v>137260877</v>
       </c>
       <c s="8" t="inlineStr" r="D226">
         <is>
-          <t xml:space="preserve">F 420-1 LOTUS DR N FST</t>
+          <t xml:space="preserve">F 420-2 HEAVENS DR FST</t>
         </is>
       </c>
       <c s="7" r="E226">
@@ -23003,11 +23003,11 @@
       </c>
       <c s="8" t="inlineStr" r="F226">
         <is>
-          <t xml:space="preserve">PON2140PC, 577-580</t>
+          <t xml:space="preserve">PON2140PC, 489-492</t>
         </is>
       </c>
       <c s="7" r="G226">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c s="8" t="inlineStr" r="H226">
         <is>
@@ -23023,13 +23023,13 @@
       <c s="8" t="str" r="K226"/>
       <c s="8" t="inlineStr" r="L226">
         <is>
-          <t xml:space="preserve">420</t>
+          <t xml:space="preserve">500</t>
         </is>
       </c>
       <c s="8" t="str" r="M226"/>
       <c s="8" t="inlineStr" r="N226">
         <is>
-          <t xml:space="preserve">LOTUS DR N</t>
+          <t xml:space="preserve">GARDEN AV</t>
         </is>
       </c>
       <c s="8" t="str" r="O226"/>
@@ -23059,11 +23059,11 @@
     <row r="227" ht="21.15" customHeight="1">
       <c s="12" t="str" r="B227"/>
       <c s="7" r="C227">
-        <v>137260877</v>
+        <v>137451232</v>
       </c>
       <c s="8" t="inlineStr" r="D227">
         <is>
-          <t xml:space="preserve">F 420-2 HEAVENS DR FST</t>
+          <t xml:space="preserve">F 420-2 LOTUS DR N FST</t>
         </is>
       </c>
       <c s="7" r="E227">
@@ -23071,11 +23071,11 @@
       </c>
       <c s="8" t="inlineStr" r="F227">
         <is>
-          <t xml:space="preserve">PON2140PC, 489-492</t>
+          <t xml:space="preserve">PON2140PC, 577-580</t>
         </is>
       </c>
       <c s="7" r="G227">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c s="8" t="inlineStr" r="H227">
         <is>
@@ -23091,13 +23091,13 @@
       <c s="8" t="str" r="K227"/>
       <c s="8" t="inlineStr" r="L227">
         <is>
-          <t xml:space="preserve">500</t>
+          <t xml:space="preserve">420</t>
         </is>
       </c>
       <c s="8" t="str" r="M227"/>
       <c s="8" t="inlineStr" r="N227">
         <is>
-          <t xml:space="preserve">GARDEN AV</t>
+          <t xml:space="preserve">LOTUS DR N</t>
         </is>
       </c>
       <c s="8" t="str" r="O227"/>
@@ -23131,7 +23131,7 @@
       </c>
       <c s="8" t="inlineStr" r="D228">
         <is>
-          <t xml:space="preserve">F 425-1 GARDEN AVE FST</t>
+          <t xml:space="preserve">F 425-2 GARDEN AVE FST</t>
         </is>
       </c>
       <c s="7" r="E228">
@@ -23255,7 +23255,7 @@
       </c>
       <c s="8" t="inlineStr" r="D230">
         <is>
-          <t xml:space="preserve">F 430-1 DORADO DR FST</t>
+          <t xml:space="preserve">F 430-2 DORADO DR FST</t>
         </is>
       </c>
       <c s="7" r="E230">
@@ -23547,7 +23547,7 @@
       </c>
       <c s="8" t="inlineStr" r="D235">
         <is>
-          <t xml:space="preserve">F 430-1 LOTUS DR N FST</t>
+          <t xml:space="preserve">F 430-2 LOTUS DR N FST</t>
         </is>
       </c>
       <c s="7" r="E235">
@@ -23795,7 +23795,7 @@
       </c>
       <c s="8" t="inlineStr" r="D239">
         <is>
-          <t xml:space="preserve">F 470-1 LOTUS DR N FST</t>
+          <t xml:space="preserve">F 470-2 LOTUS DR N FST</t>
         </is>
       </c>
       <c s="7" r="E239">
@@ -23919,7 +23919,7 @@
       </c>
       <c s="8" t="inlineStr" r="D241">
         <is>
-          <t xml:space="preserve">F 490-1 LOTUS DR N FST</t>
+          <t xml:space="preserve">F 490-2 LOTUS DR N FST</t>
         </is>
       </c>
       <c s="7" r="E241">
@@ -24167,7 +24167,7 @@
       </c>
       <c s="8" t="inlineStr" r="D245">
         <is>
-          <t xml:space="preserve">F 510-1 DORADO DR FST</t>
+          <t xml:space="preserve">F 510-2 DORADO DR FST</t>
         </is>
       </c>
       <c s="7" r="E245">
@@ -24347,7 +24347,7 @@
       </c>
       <c s="8" t="inlineStr" r="D248">
         <is>
-          <t xml:space="preserve">F 510-1 LOTUS DR N FST</t>
+          <t xml:space="preserve">F 510-2 LOTUS DR N FST</t>
         </is>
       </c>
       <c s="7" r="E248">
@@ -24471,7 +24471,7 @@
       </c>
       <c s="8" t="inlineStr" r="D250">
         <is>
-          <t xml:space="preserve">F 530-1 DORADO DR FST</t>
+          <t xml:space="preserve">F 530-2 DORADO DR FST</t>
         </is>
       </c>
       <c s="7" r="E250">
@@ -24707,7 +24707,7 @@
       </c>
       <c s="8" t="inlineStr" r="D254">
         <is>
-          <t xml:space="preserve">F 530-1 LOTUS DR N FST</t>
+          <t xml:space="preserve">F 530-2 LOTUS DR N FST</t>
         </is>
       </c>
       <c s="7" r="E254">
@@ -24831,7 +24831,7 @@
       </c>
       <c s="8" t="inlineStr" r="D256">
         <is>
-          <t xml:space="preserve">F 541-1 GARDEN AVE FST</t>
+          <t xml:space="preserve">F 541-2 GARDEN AVE FST</t>
         </is>
       </c>
       <c s="7" r="E256">
@@ -25079,7 +25079,7 @@
       </c>
       <c s="8" t="inlineStr" r="D260">
         <is>
-          <t xml:space="preserve">F 561-1 GARDEN AVE FST</t>
+          <t xml:space="preserve">F 561-2 GARDEN AVE FST</t>
         </is>
       </c>
       <c s="7" r="E260">
@@ -25259,7 +25259,7 @@
       </c>
       <c s="8" t="inlineStr" r="D263">
         <is>
-          <t xml:space="preserve">F 9-1 RED CYPRESS CT FST</t>
+          <t xml:space="preserve">F 9-2 RED CYPRESS CT FST</t>
         </is>
       </c>
       <c s="7" r="E263">
@@ -25715,7 +25715,7 @@
       </c>
       <c s="8" t="inlineStr" r="D271">
         <is>
-          <t xml:space="preserve">OPP 330-1 LOTUS DR S FST</t>
+          <t xml:space="preserve">OPP 330-2 LOTUS DR S FST</t>
         </is>
       </c>
       <c s="7" r="E271">
@@ -25839,7 +25839,7 @@
       </c>
       <c s="8" t="inlineStr" r="D273">
         <is>
-          <t xml:space="preserve">OPP 340-1 GARDEN AVE FST</t>
+          <t xml:space="preserve">OPP 340-2 GARDEN AVE FST</t>
         </is>
       </c>
       <c s="7" r="E273">
@@ -25963,7 +25963,7 @@
       </c>
       <c s="8" t="inlineStr" r="D275">
         <is>
-          <t xml:space="preserve">OPP 350-1 LOTUS DR S FST</t>
+          <t xml:space="preserve">OPP 350-2 LOTUS DR S FST</t>
         </is>
       </c>
       <c s="7" r="E275">
@@ -26583,10 +26583,10 @@
     <mergeCell ref="O107:P107"/>
     <mergeCell ref="T107:U107"/>
     <mergeCell ref="V107:Z107"/>
-    <mergeCell ref="C108:C110"/>
-    <mergeCell ref="D108:D110"/>
-    <mergeCell ref="E108:E110"/>
-    <mergeCell ref="F108:F110"/>
+    <mergeCell ref="C108:C111"/>
+    <mergeCell ref="D108:D111"/>
+    <mergeCell ref="E108:E111"/>
+    <mergeCell ref="F108:F111"/>
     <mergeCell ref="H108:I108"/>
     <mergeCell ref="O108:P108"/>
     <mergeCell ref="T108:U108"/>
@@ -26599,14 +26599,14 @@
     <mergeCell ref="O110:P110"/>
     <mergeCell ref="T110:U110"/>
     <mergeCell ref="V110:Z110"/>
-    <mergeCell ref="C111:C114"/>
-    <mergeCell ref="D111:D114"/>
-    <mergeCell ref="E111:E114"/>
-    <mergeCell ref="F111:F114"/>
     <mergeCell ref="H111:I111"/>
     <mergeCell ref="O111:P111"/>
     <mergeCell ref="T111:U111"/>
     <mergeCell ref="V111:Z111"/>
+    <mergeCell ref="C112:C114"/>
+    <mergeCell ref="D112:D114"/>
+    <mergeCell ref="E112:E114"/>
+    <mergeCell ref="F112:F114"/>
     <mergeCell ref="H112:I112"/>
     <mergeCell ref="O112:P112"/>
     <mergeCell ref="T112:U112"/>
@@ -26943,10 +26943,10 @@
     <mergeCell ref="O177:P177"/>
     <mergeCell ref="T177:U177"/>
     <mergeCell ref="V177:Z177"/>
-    <mergeCell ref="C178:C181"/>
-    <mergeCell ref="D178:D181"/>
-    <mergeCell ref="E178:E181"/>
-    <mergeCell ref="F178:F181"/>
+    <mergeCell ref="C178:C179"/>
+    <mergeCell ref="D178:D179"/>
+    <mergeCell ref="E178:E179"/>
+    <mergeCell ref="F178:F179"/>
     <mergeCell ref="H178:I178"/>
     <mergeCell ref="O178:P178"/>
     <mergeCell ref="T178:U178"/>
@@ -26955,6 +26955,10 @@
     <mergeCell ref="O179:P179"/>
     <mergeCell ref="T179:U179"/>
     <mergeCell ref="V179:Z179"/>
+    <mergeCell ref="C180:C182"/>
+    <mergeCell ref="D180:D182"/>
+    <mergeCell ref="E180:E182"/>
+    <mergeCell ref="F180:F182"/>
     <mergeCell ref="H180:I180"/>
     <mergeCell ref="O180:P180"/>
     <mergeCell ref="T180:U180"/>
@@ -26963,22 +26967,18 @@
     <mergeCell ref="O181:P181"/>
     <mergeCell ref="T181:U181"/>
     <mergeCell ref="V181:Z181"/>
-    <mergeCell ref="C182:C183"/>
-    <mergeCell ref="D182:D183"/>
-    <mergeCell ref="E182:E183"/>
-    <mergeCell ref="F182:F183"/>
     <mergeCell ref="H182:I182"/>
     <mergeCell ref="O182:P182"/>
     <mergeCell ref="T182:U182"/>
     <mergeCell ref="V182:Z182"/>
+    <mergeCell ref="C183:C186"/>
+    <mergeCell ref="D183:D186"/>
+    <mergeCell ref="E183:E186"/>
+    <mergeCell ref="F183:F186"/>
     <mergeCell ref="H183:I183"/>
     <mergeCell ref="O183:P183"/>
     <mergeCell ref="T183:U183"/>
     <mergeCell ref="V183:Z183"/>
-    <mergeCell ref="C184:C186"/>
-    <mergeCell ref="D184:D186"/>
-    <mergeCell ref="E184:E186"/>
-    <mergeCell ref="F184:F186"/>
     <mergeCell ref="H184:I184"/>
     <mergeCell ref="O184:P184"/>
     <mergeCell ref="T184:U184"/>

--- a/A02RNLQ_FA COMPARISON REPORT.xlsx
+++ b/A02RNLQ_FA COMPARISON REPORT.xlsx
@@ -9437,7 +9437,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">6/25/2024 4:33:49 PM</t>
+            <t xml:space="preserve">6/27/2024 4:45:56 PM</t>
           </r>
           <r>
             <rPr>
